--- a/10350_0020.xlsx
+++ b/10350_0020.xlsx
@@ -2867,631 +2867,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId110"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>287</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="111" name="Image 111" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId111"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>287</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="112" name="Image 112" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId112"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>287</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="113" name="Image 113" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId113"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>287</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="114" name="Image 114" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId114"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>287</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="115" name="Image 115" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId115"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>300</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="116" name="Image 116" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId116"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>300</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="117" name="Image 117" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId117"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>300</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="118" name="Image 118" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId118"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>300</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="119" name="Image 119" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId119"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>300</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="120" name="Image 120" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId120"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>313</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="121" name="Image 121" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId121"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>313</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="122" name="Image 122" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId122"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>313</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="123" name="Image 123" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId123"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>313</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="124" name="Image 124" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId124"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>313</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="125" name="Image 125" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId125"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>326</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="126" name="Image 126" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId126"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>326</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="127" name="Image 127" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId127"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>326</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="128" name="Image 128" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId128"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>326</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="129" name="Image 129" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId129"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>326</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="130" name="Image 130" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId130"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>339</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="131" name="Image 131" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId131"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>339</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="132" name="Image 132" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId132"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>339</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="133" name="Image 133" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId133"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>339</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="134" name="Image 134" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId134"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>339</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="135" name="Image 135" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId135"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3794,7 +3169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4067,14 +3442,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>103.9257505_0.1192445_10350_0020_6</t>
+          <t>103.5405845_0.5875833_10350_0020_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.9257505</v>
+        <v>103.5405845</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1192445</v>
+        <v>0.5875833</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -4083,41 +3458,41 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>cuts/103.9257505,0.1192445_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.5405845,0.5875833_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>cuts/103.9257505,0.1192445_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.5405845,0.5875833_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>cuts/103.9257505,0.1192445_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.5405845,0.5875833_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>cuts/103.9257505,0.1192445_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.5405845,0.5875833_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>cuts/103.9257505,0.1192445_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.5405845,0.5875833_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>103.6250883_0.7495829_10350_0020_7</t>
+          <t>103.5077503_0.6450833_10350_0020_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103.6250883</v>
+        <v>103.5077503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7495829000000001</v>
+        <v>0.6450833</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -4126,41 +3501,41 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cuts/103.6250883,0.7495829_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.5077503,0.6450833_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>cuts/103.6250883,0.7495829_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.5077503,0.6450833_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>cuts/103.6250883,0.7495829_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.5077503,0.6450833_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>cuts/103.6250883,0.7495829_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.5077503,0.6450833_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>cuts/103.6250883,0.7495829_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.5077503,0.6450833_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>103.5405845_0.5875833_10350_0020_8</t>
+          <t>103.4817494_0.6337500_10350_0020_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>103.5405845</v>
+        <v>103.4817494</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5875833</v>
+        <v>0.63375</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -4169,41 +3544,41 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>cuts/103.5405845,0.5875833_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.4817494,0.6337500_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>cuts/103.5405845,0.5875833_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4817494,0.6337500_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>cuts/103.5405845,0.5875833_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4817494,0.6337500_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cuts/103.5405845,0.5875833_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4817494,0.6337500_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>cuts/103.5405845,0.5875833_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4817494,0.6337500_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>103.5077503_0.6450833_10350_0020_9</t>
+          <t>103.4989166_0.6244167_10350_0020_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.5077503</v>
+        <v>103.4989166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6450833</v>
+        <v>0.6244167</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -4212,41 +3587,41 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>cuts/103.5077503,0.6450833_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.4989166,0.6244167_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>cuts/103.5077503,0.6450833_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4989166,0.6244167_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>cuts/103.5077503,0.6450833_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4989166,0.6244167_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>cuts/103.5077503,0.6450833_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4989166,0.6244167_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cuts/103.5077503,0.6450833_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4989166,0.6244167_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>103.4817494_0.6337500_10350_0020_10</t>
+          <t>103.4672492_0.4874166_10350_0020_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.4817494</v>
+        <v>103.4672492</v>
       </c>
       <c r="C11" t="n">
-        <v>0.63375</v>
+        <v>0.4874166</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -4255,41 +3630,41 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cuts/103.4817494,0.6337500_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.4672492,0.4874166_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>cuts/103.4817494,0.6337500_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4672492,0.4874166_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>cuts/103.4817494,0.6337500_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4672492,0.4874166_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cuts/103.4817494,0.6337500_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4672492,0.4874166_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>cuts/103.4817494,0.6337500_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4672492,0.4874166_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>103.4989166_0.6244167_10350_0020_11</t>
+          <t>103.8905971_0.6797453_10350_0020_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.4989166</v>
+        <v>103.8905971</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6244167</v>
+        <v>0.6797453</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -4298,41 +3673,41 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cuts/103.4989166,0.6244167_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.8905971,0.6797453_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>cuts/103.4989166,0.6244167_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.8905971,0.6797453_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>cuts/103.4989166,0.6244167_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.8905971,0.6797453_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cuts/103.4989166,0.6244167_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.8905971,0.6797453_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>cuts/103.4989166,0.6244167_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.8905971,0.6797453_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>103.4672492_0.4874166_10350_0020_12</t>
+          <t>103.3850794_0.6655829_10350_0020_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.4672492</v>
+        <v>103.3850794</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4874166</v>
+        <v>0.6655829</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -4341,41 +3716,41 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cuts/103.4672492,0.4874166_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.3850794,0.6655829_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>cuts/103.4672492,0.4874166_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3850794,0.6655829_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>cuts/103.4672492,0.4874166_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3850794,0.6655829_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cuts/103.4672492,0.4874166_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3850794,0.6655829_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>cuts/103.4672492,0.4874166_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3850794,0.6655829_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>103.8905971_0.6797453_10350_0020_13</t>
+          <t>102.9841625_0.5527419_10350_0020_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.8905971</v>
+        <v>102.9841625</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6797453</v>
+        <v>0.5527419</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -4384,41 +3759,41 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cuts/103.8905971,0.6797453_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/102.9841625,0.5527419_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>cuts/103.8905971,0.6797453_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9841625,0.5527419_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>cuts/103.8905971,0.6797453_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9841625,0.5527419_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cuts/103.8905971,0.6797453_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9841625,0.5527419_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>cuts/103.8905971,0.6797453_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9841625,0.5527419_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>103.8825988_0.7635789_10350_0020_14</t>
+          <t>103.9170912_0.4097447_10350_0020_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.8825988</v>
+        <v>103.9170912</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7635788999999999</v>
+        <v>0.4097447</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -4427,41 +3802,41 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cuts/103.8825988,0.7635789_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.9170912,0.4097447_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>cuts/103.8825988,0.7635789_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9170912,0.4097447_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>cuts/103.8825988,0.7635789_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9170912,0.4097447_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cuts/103.8825988,0.7635789_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9170912,0.4097447_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cuts/103.8825988,0.7635789_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9170912,0.4097447_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>103.3850794_0.6655829_10350_0020_15</t>
+          <t>104.0157181_0.5271659_10350_0020_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.3850794</v>
+        <v>104.0157181</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6655829</v>
+        <v>0.5271659</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -4470,41 +3845,41 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>cuts/103.3850794,0.6655829_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/104.0157181,0.5271659_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>cuts/103.3850794,0.6655829_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0157181,0.5271659_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>cuts/103.3850794,0.6655829_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0157181,0.5271659_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cuts/103.3850794,0.6655829_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0157181,0.5271659_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>cuts/103.3850794,0.6655829_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0157181,0.5271659_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>102.9841625_0.5527419_10350_0020_16</t>
+          <t>103.7871966_0.7527475_10350_0020_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.9841625</v>
+        <v>103.7871966</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5527419</v>
+        <v>0.7527475</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -4513,41 +3888,41 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>cuts/102.9841625,0.5527419_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.7871966,0.7527475_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>cuts/102.9841625,0.5527419_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.7871966,0.7527475_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>cuts/102.9841625,0.5527419_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.7871966,0.7527475_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cuts/102.9841625,0.5527419_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.7871966,0.7527475_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>cuts/102.9841625,0.5527419_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.7871966,0.7527475_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>103.5080835_0.3924167_10350_0020_17</t>
+          <t>103.8060956_0.7579138_10350_0020_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>103.5080835</v>
+        <v>103.8060956</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3924167</v>
+        <v>0.7579138</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -4556,41 +3931,41 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>cuts/103.5080835,0.3924167_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.8060956,0.7579138_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>cuts/103.5080835,0.3924167_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.8060956,0.7579138_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>cuts/103.5080835,0.3924167_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.8060956,0.7579138_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cuts/103.5080835,0.3924167_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.8060956,0.7579138_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>cuts/103.5080835,0.3924167_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.8060956,0.7579138_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>103.3785823_0.2439162_10350_0020_18</t>
+          <t>103.7004159_0.0374154_10350_0020_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103.3785823</v>
+        <v>103.7004159</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2439162</v>
+        <v>0.0374154</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -4599,41 +3974,41 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>cuts/103.3785823,0.2439162_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.7004159,0.0374154_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>cuts/103.3785823,0.2439162_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.7004159,0.0374154_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>cuts/103.3785823,0.2439162_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.7004159,0.0374154_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>cuts/103.3785823,0.2439162_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.7004159,0.0374154_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>cuts/103.3785823,0.2439162_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.7004159,0.0374154_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>103.9170912_0.4097447_10350_0020_19</t>
+          <t>103.7519150_-0.0107519_10350_0020_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>103.9170912</v>
+        <v>103.751915</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4097447</v>
+        <v>-0.0107519</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -4642,41 +4017,41 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>cuts/103.9170912,0.4097447_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.7519150,-0.0107519_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>cuts/103.9170912,0.4097447_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.7519150,-0.0107519_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>cuts/103.9170912,0.4097447_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.7519150,-0.0107519_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>cuts/103.9170912,0.4097447_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.7519150,-0.0107519_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>cuts/103.9170912,0.4097447_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.7519150,-0.0107519_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>104.0157181_0.5271659_10350_0020_20</t>
+          <t>104.0176042_0.7605752_10350_0020_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104.0157181</v>
+        <v>104.0176042</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5271659</v>
+        <v>0.7605752</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -4685,41 +4060,41 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>cuts/104.0157181,0.5271659_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/104.0176042,0.7605752_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>cuts/104.0157181,0.5271659_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0176042,0.7605752_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>cuts/104.0157181,0.5271659_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0176042,0.7605752_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cuts/104.0157181,0.5271659_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0176042,0.7605752_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>cuts/104.0157181,0.5271659_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0176042,0.7605752_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>103.7871966_0.7527475_10350_0020_21</t>
+          <t>104.0107710_0.7735754_10350_0020_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>103.7871966</v>
+        <v>104.010771</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7527475</v>
+        <v>0.7735754</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -4728,41 +4103,41 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>cuts/103.7871966,0.7527475_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/104.0107710,0.7735754_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>cuts/103.7871966,0.7527475_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/104.0107710,0.7735754_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>cuts/103.7871966,0.7527475_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/104.0107710,0.7735754_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cuts/103.7871966,0.7527475_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/104.0107710,0.7735754_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>cuts/103.7871966,0.7527475_10350_0020_Azul-3.5micras.jpeg</t>
+          <t>cuts/104.0107710,0.7735754_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>103.8060956_0.7579138_10350_0020_22</t>
+          <t>103.5264171_0.3500833_10350_0020_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>103.8060956</v>
+        <v>103.5264171</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7579138</v>
+        <v>0.3500833</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -4771,240 +4146,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>cuts/103.8060956,0.7579138_10350_0020_RGB-composite.jpeg</t>
+          <t>cuts/103.5264171,0.3500833_10350_0020_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>cuts/103.8060956,0.7579138_10350_0020_Rojo-8micras.jpeg</t>
+          <t>cuts/103.5264171,0.3500833_10350_0020_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>cuts/103.8060956,0.7579138_10350_0020_I3-5.8micras.jpeg</t>
+          <t>cuts/103.5264171,0.3500833_10350_0020_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cuts/103.8060956,0.7579138_10350_0020_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.5264171,0.3500833_10350_0020_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
-        <is>
-          <t>cuts/103.8060956,0.7579138_10350_0020_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>103.7004159_0.0374154_10350_0020_23</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>103.7004159</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0374154</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>cuts/103.7004159,0.0374154_10350_0020_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>cuts/103.7004159,0.0374154_10350_0020_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>cuts/103.7004159,0.0374154_10350_0020_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>cuts/103.7004159,0.0374154_10350_0020_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>cuts/103.7004159,0.0374154_10350_0020_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>103.7519150_-0.0107519_10350_0020_24</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>103.751915</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.0107519</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>cuts/103.7519150,-0.0107519_10350_0020_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>cuts/103.7519150,-0.0107519_10350_0020_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>cuts/103.7519150,-0.0107519_10350_0020_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>cuts/103.7519150,-0.0107519_10350_0020_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>cuts/103.7519150,-0.0107519_10350_0020_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>104.0176042_0.7605752_10350_0020_25</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>104.0176042</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7605752</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>cuts/104.0176042,0.7605752_10350_0020_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>cuts/104.0176042,0.7605752_10350_0020_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>cuts/104.0176042,0.7605752_10350_0020_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>cuts/104.0176042,0.7605752_10350_0020_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>cuts/104.0176042,0.7605752_10350_0020_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>104.0107710_0.7735754_10350_0020_26</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>104.010771</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.7735754</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>cuts/104.0107710,0.7735754_10350_0020_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>cuts/104.0107710,0.7735754_10350_0020_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>cuts/104.0107710,0.7735754_10350_0020_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>cuts/104.0107710,0.7735754_10350_0020_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>cuts/104.0107710,0.7735754_10350_0020_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>103.5264171_0.3500833_10350_0020_27</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>103.5264171</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.3500833</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>cuts/103.5264171,0.3500833_10350_0020_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>cuts/103.5264171,0.3500833_10350_0020_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>cuts/103.5264171,0.3500833_10350_0020_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>cuts/103.5264171,0.3500833_10350_0020_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
         <is>
           <t>cuts/103.5264171,0.3500833_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
@@ -5021,7 +4181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R340"/>
+  <dimension ref="A1:R275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5111,154 +4271,119 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>103.9257505_0.1192445_10350_0020_6</t>
+          <t>103.5405845_0.5875833_10350_0020_6</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>103.6250883_0.7495829_10350_0020_7</t>
+          <t>103.5077503_0.6450833_10350_0020_7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>103.5405845_0.5875833_10350_0020_8</t>
+          <t>103.4817494_0.6337500_10350_0020_8</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>103.5077503_0.6450833_10350_0020_9</t>
+          <t>103.4989166_0.6244167_10350_0020_9</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>103.4817494_0.6337500_10350_0020_10</t>
+          <t>103.4672492_0.4874166_10350_0020_10</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>103.4989166_0.6244167_10350_0020_11</t>
+          <t>103.8905971_0.6797453_10350_0020_11</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>103.4672492_0.4874166_10350_0020_12</t>
+          <t>103.3850794_0.6655829_10350_0020_12</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>103.8905971_0.6797453_10350_0020_13</t>
+          <t>102.9841625_0.5527419_10350_0020_13</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>103.8825988_0.7635789_10350_0020_14</t>
+          <t>103.9170912_0.4097447_10350_0020_14</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>103.3850794_0.6655829_10350_0020_15</t>
+          <t>104.0157181_0.5271659_10350_0020_15</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>102.9841625_0.5527419_10350_0020_16</t>
+          <t>103.7871966_0.7527475_10350_0020_16</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>103.5080835_0.3924167_10350_0020_17</t>
+          <t>103.8060956_0.7579138_10350_0020_17</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>103.3785823_0.2439162_10350_0020_18</t>
+          <t>103.7004159_0.0374154_10350_0020_18</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>103.9170912_0.4097447_10350_0020_19</t>
+          <t>103.7519150_-0.0107519_10350_0020_19</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>104.0157181_0.5271659_10350_0020_20</t>
+          <t>104.0176042_0.7605752_10350_0020_20</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>103.7871966_0.7527475_10350_0020_21</t>
+          <t>104.0107710_0.7735754_10350_0020_21</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>103.8060956_0.7579138_10350_0020_22</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>103.7004159_0.0374154_10350_0020_23</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>103.7519150_-0.0107519_10350_0020_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>104.0176042_0.7605752_10350_0020_25</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>104.0107710_0.7735754_10350_0020_26</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>103.5264171_0.3500833_10350_0020_27</t>
+          <t>103.5264171_0.3500833_10350_0020_22</t>
         </is>
       </c>
     </row>

--- a/10350_0020.xlsx
+++ b/10350_0020.xlsx
@@ -3169,7 +3169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3223,6 +3223,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3266,6 +3346,54 @@
           <t>cuts/103.9257505,0.1192445_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K2" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3309,6 +3437,54 @@
           <t>cuts/103.6250883,0.7495829_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3352,6 +3528,54 @@
           <t>cuts/103.8825988,0.7635789_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3395,6 +3619,54 @@
           <t>cuts/103.5080835,0.3924167_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M5" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3438,6 +3710,54 @@
           <t>cuts/103.3785823,0.2439162_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K6" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M6" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3481,6 +3801,54 @@
           <t>cuts/103.5405845,0.5875833_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M7" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O7" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3524,6 +3892,54 @@
           <t>cuts/103.5077503,0.6450833_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M8" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3567,6 +3983,54 @@
           <t>cuts/103.4817494,0.6337500_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K9" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3610,6 +4074,54 @@
           <t>cuts/103.4989166,0.6244167_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M10" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3653,6 +4165,54 @@
           <t>cuts/103.4672492,0.4874166_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K11" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M11" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3696,6 +4256,54 @@
           <t>cuts/103.8905971,0.6797453_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K12" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M12" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O12" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V12" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3739,6 +4347,54 @@
           <t>cuts/103.3850794,0.6655829_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K13" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M13" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O13" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3782,6 +4438,54 @@
           <t>cuts/102.9841625,0.5527419_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K14" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M14" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O14" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3825,6 +4529,54 @@
           <t>cuts/103.9170912,0.4097447_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K15" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M15" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O15" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3868,6 +4620,54 @@
           <t>cuts/104.0157181,0.5271659_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K16" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M16" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V16" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3911,6 +4711,54 @@
           <t>cuts/103.7871966,0.7527475_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K17" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3954,6 +4802,54 @@
           <t>cuts/103.8060956,0.7579138_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K18" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M18" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O18" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3997,6 +4893,54 @@
           <t>cuts/103.7004159,0.0374154_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K19" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M19" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O19" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4040,6 +4984,54 @@
           <t>cuts/103.7519150,-0.0107519_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K20" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M20" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V20" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4083,6 +5075,54 @@
           <t>cuts/104.0176042,0.7605752_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K21" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M21" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O21" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4126,6 +5166,54 @@
           <t>cuts/104.0107710,0.7735754_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K22" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M22" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O22" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T22" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.425373</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4168,6 +5256,54 @@
         <is>
           <t>cuts/103.5264171,0.3500833_10350_0020_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J23" t="n">
+        <v>3.30368</v>
+      </c>
+      <c r="K23" t="n">
+        <v>17.5204</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.204653</v>
+      </c>
+      <c r="M23" t="n">
+        <v>15.3575</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.470074</v>
+      </c>
+      <c r="O23" t="n">
+        <v>15.7846</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.431342</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>15.4128</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.24647</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.508108</v>
+      </c>
+      <c r="T23" t="n">
+        <v>5.03209</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5.26316</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.377838</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3.76866</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.425373</v>
       </c>
     </row>
   </sheetData>
